--- a/3scenarios/telemetry/PositionTelemetry_S1_Traditional.xlsx
+++ b/3scenarios/telemetry/PositionTelemetry_S1_Traditional.xlsx
@@ -159,17 +159,7 @@
             <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00306B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00306B"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3411,17 +3401,7 @@
             <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00306B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00306B"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -6663,17 +6643,7 @@
             <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00306B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00306B"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -9915,17 +9885,7 @@
             <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00306B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00306B"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -13167,17 +13127,7 @@
             <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00306B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00306B"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -16419,17 +16369,7 @@
             <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00306B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00306B"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -19671,17 +19611,7 @@
             <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00306B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00306B"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -22923,17 +22853,7 @@
             <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00306B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00306B"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -26175,17 +26095,7 @@
             <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00306B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00306B"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -29427,17 +29337,7 @@
             <a:ln w="19050"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00306B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00306B"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
